--- a/Testdata/Templates/ManagePopulations/extraction-template-14.xlsx
+++ b/Testdata/Templates/ManagePopulations/extraction-template-14.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozee.liu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\ManagePopulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1303A2EA-EF57-4826-8C4B-2D861EAEB875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5070C462-5B27-4CB7-A40D-53C44CEE1A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AF4F015D-CD0F-4C07-952A-EC9D371CFC62}"/>
   </bookViews>
@@ -163,9 +163,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>Interventional Only</t>
-  </si>
-  <si>
     <t>Quality of Life Only</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>Prior treatments</t>
   </si>
   <si>
-    <t>Interventional Study Characteristics</t>
-  </si>
-  <si>
     <t>Efficacy-Survival</t>
   </si>
   <si>
@@ -595,9 +589,6 @@
     <t>FO-4</t>
   </si>
   <si>
-    <t>Article Identifier</t>
-  </si>
-  <si>
     <t>Publication Identifier</t>
   </si>
   <si>
@@ -656,12 +647,6 @@
   </si>
   <si>
     <t>Study N (overall)</t>
-  </si>
-  <si>
-    <t>Age (per arm)</t>
-  </si>
-  <si>
-    <t>Age (overall)</t>
   </si>
   <si>
     <t>Male N (per arm)</t>
@@ -987,9 +972,6 @@
     <t>Subgroup related with prior treatment reported</t>
   </si>
   <si>
-    <t>Interventional Study Design</t>
-  </si>
-  <si>
     <t>OS N (per arm)</t>
   </si>
   <si>
@@ -1201,6 +1183,24 @@
   </si>
   <si>
     <t>CE</t>
+  </si>
+  <si>
+    <t>Study Identifier</t>
+  </si>
+  <si>
+    <t>Age, Median (per arm)</t>
+  </si>
+  <si>
+    <t>Age, Median (overall)</t>
+  </si>
+  <si>
+    <t>Clinical Only</t>
+  </si>
+  <si>
+    <t>Clinical Study Characteristics</t>
+  </si>
+  <si>
+    <t>Clinical Study Design</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1808,18 +1808,21 @@
     <xf numFmtId="0" fontId="12" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2138,14 +2141,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EED4E20-1978-4171-A89D-254C3A7D165F}">
   <dimension ref="A1:GV5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="CS1" workbookViewId="0">
+      <selection activeCell="DC6" sqref="DC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:204" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -2254,7 +2257,7 @@
       <c r="DA1" s="1"/>
       <c r="DB1" s="1"/>
       <c r="DC1" s="2" t="s">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="DD1" s="2"/>
       <c r="DE1" s="3"/>
@@ -2292,7 +2295,7 @@
       <c r="EK1" s="2"/>
       <c r="EL1" s="2"/>
       <c r="EM1" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EN1" s="6"/>
       <c r="EO1" s="6"/>
@@ -2304,7 +2307,7 @@
       <c r="EU1" s="7"/>
       <c r="EV1" s="7"/>
       <c r="EW1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EX1" s="8"/>
       <c r="EY1" s="8"/>
@@ -2322,7 +2325,7 @@
       <c r="FK1" s="9"/>
       <c r="FL1" s="9"/>
       <c r="FM1" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="FN1" s="11"/>
       <c r="FO1" s="11"/>
@@ -2361,8 +2364,8 @@
       <c r="GV1" s="12"/>
     </row>
     <row r="2" spans="1:204" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
-        <v>5</v>
+      <c r="A2" s="82" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -2383,7 +2386,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
@@ -2394,7 +2397,7 @@
       <c r="AA2" s="15"/>
       <c r="AB2" s="15"/>
       <c r="AC2" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD2" s="15"/>
       <c r="AE2" s="15"/>
@@ -2474,10 +2477,10 @@
       <c r="DA2" s="15"/>
       <c r="DB2" s="15"/>
       <c r="DC2" s="16" t="s">
-        <v>8</v>
+        <v>321</v>
       </c>
       <c r="DD2" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="DE2" s="17"/>
       <c r="DF2" s="17"/>
@@ -2501,7 +2504,7 @@
       <c r="DX2" s="18"/>
       <c r="DY2" s="18"/>
       <c r="DZ2" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="EA2" s="19"/>
       <c r="EB2" s="20"/>
@@ -2511,36 +2514,36 @@
       <c r="EF2" s="20"/>
       <c r="EG2" s="20"/>
       <c r="EH2" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="EI2" s="21"/>
       <c r="EJ2" s="22"/>
       <c r="EK2" s="22"/>
       <c r="EL2" s="22"/>
       <c r="EM2" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="EN2" s="23"/>
       <c r="EO2" s="24"/>
       <c r="EP2" s="24"/>
       <c r="EQ2" s="25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="ER2" s="25"/>
-      <c r="ES2" s="81" t="s">
-        <v>14</v>
+      <c r="ES2" s="84" t="s">
+        <v>12</v>
       </c>
       <c r="ET2" s="79"/>
       <c r="EU2" s="79"/>
       <c r="EV2" s="79"/>
       <c r="EW2" s="26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="EX2" s="26"/>
       <c r="EY2" s="26"/>
       <c r="EZ2" s="26"/>
       <c r="FA2" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="FB2" s="27"/>
       <c r="FC2" s="28"/>
@@ -2554,17 +2557,17 @@
       <c r="FK2" s="28"/>
       <c r="FL2" s="28"/>
       <c r="FM2" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="FN2" s="31"/>
       <c r="FO2" s="31"/>
       <c r="FP2" s="31"/>
       <c r="FQ2" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="FR2" s="32"/>
       <c r="FS2" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="FT2" s="17"/>
       <c r="FU2" s="17"/>
@@ -2585,7 +2588,7 @@
       <c r="GJ2" s="17"/>
       <c r="GK2" s="17"/>
       <c r="GL2" s="33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="GM2" s="33"/>
       <c r="GN2" s="33"/>
@@ -2594,14 +2597,14 @@
       <c r="GQ2" s="33"/>
       <c r="GR2" s="33"/>
       <c r="GS2" s="34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="GT2" s="35"/>
       <c r="GU2" s="35"/>
       <c r="GV2" s="35"/>
     </row>
     <row r="3" spans="1:204" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -2630,7 +2633,7 @@
       <c r="AA3" s="37"/>
       <c r="AB3" s="37"/>
       <c r="AC3" s="38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD3" s="38"/>
       <c r="AE3" s="38"/>
@@ -2647,7 +2650,7 @@
       <c r="AP3" s="38"/>
       <c r="AQ3" s="38"/>
       <c r="AR3" s="39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS3" s="39"/>
       <c r="AT3" s="39"/>
@@ -2682,7 +2685,7 @@
       <c r="BW3" s="39"/>
       <c r="BX3" s="39"/>
       <c r="BY3" s="40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BZ3" s="40"/>
       <c r="CA3" s="40"/>
@@ -2715,7 +2718,7 @@
       <c r="DB3" s="39"/>
       <c r="DC3" s="41"/>
       <c r="DD3" s="42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="DE3" s="42"/>
       <c r="DF3" s="42"/>
@@ -2728,7 +2731,7 @@
       <c r="DM3" s="42"/>
       <c r="DN3" s="42"/>
       <c r="DO3" s="43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="DP3" s="43"/>
       <c r="DQ3" s="43"/>
@@ -2759,16 +2762,16 @@
       <c r="EP3" s="46"/>
       <c r="EQ3" s="47"/>
       <c r="ER3" s="47"/>
-      <c r="ES3" s="82"/>
-      <c r="ET3" s="85"/>
-      <c r="EU3" s="85"/>
-      <c r="EV3" s="85"/>
+      <c r="ES3" s="85"/>
+      <c r="ET3" s="83"/>
+      <c r="EU3" s="83"/>
+      <c r="EV3" s="83"/>
       <c r="EW3" s="48"/>
       <c r="EX3" s="48"/>
       <c r="EY3" s="48"/>
       <c r="EZ3" s="48"/>
       <c r="FA3" s="49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="FB3" s="50"/>
       <c r="FC3" s="50"/>
@@ -2778,7 +2781,7 @@
       <c r="FG3" s="50"/>
       <c r="FH3" s="51"/>
       <c r="FI3" s="52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="FJ3" s="32"/>
       <c r="FK3" s="32"/>
@@ -2790,7 +2793,7 @@
       <c r="FQ3" s="56"/>
       <c r="FR3" s="57"/>
       <c r="FS3" s="42" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="FT3" s="42"/>
       <c r="FU3" s="42"/>
@@ -2801,7 +2804,7 @@
       <c r="FZ3" s="42"/>
       <c r="GA3" s="42"/>
       <c r="GB3" s="43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="GC3" s="43"/>
       <c r="GD3" s="43"/>
@@ -2826,1230 +2829,1230 @@
     </row>
     <row r="4" spans="1:204" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="D4" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="E4" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="F4" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="G4" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="H4" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="I4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="J4" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="K4" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="L4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="M4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="N4" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="O4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="P4" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="Q4" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="R4" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="S4" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="T4" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="61" t="s">
+      <c r="U4" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="61" t="s">
+      <c r="V4" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="U4" s="61" t="s">
+      <c r="W4" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="X4" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="61" t="s">
+      <c r="Y4" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="61" t="s">
+      <c r="Z4" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" s="61" t="s">
+      <c r="AA4" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" s="61" t="s">
+      <c r="AB4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BO4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BP4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BQ4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BR4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BS4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BT4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BU4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BV4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BW4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BY4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="BZ4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CA4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CB4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CC4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CD4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CE4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CF4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CG4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CH4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CI4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CJ4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CK4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CL4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CM4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CN4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CO4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CP4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CQ4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CR4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CS4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CT4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CU4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CV4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CW4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CX4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CY4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="CZ4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="DA4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="DB4" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="DC4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="61" t="s">
+      <c r="DD4" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="AC4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AW4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BH4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BJ4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BK4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BL4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BM4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BN4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BO4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BP4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BQ4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BR4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BS4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BT4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BU4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BV4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BW4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BX4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BY4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="BZ4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CA4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CB4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CC4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CD4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CE4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CF4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CG4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CH4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CI4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CJ4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CK4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CL4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CM4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CN4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CO4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CP4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CQ4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CR4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CS4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CT4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CU4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CV4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CW4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CX4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CY4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="CZ4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="DA4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="DB4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="DC4" s="61" t="s">
+      <c r="DE4" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="DD4" s="61" t="s">
+      <c r="DF4" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="DE4" s="61" t="s">
+      <c r="DG4" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="DF4" s="61" t="s">
+      <c r="DH4" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="DG4" s="61" t="s">
+      <c r="DI4" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="DH4" s="61" t="s">
+      <c r="DJ4" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="DI4" s="61" t="s">
+      <c r="DK4" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="DJ4" s="61" t="s">
+      <c r="DL4" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="DK4" s="61" t="s">
+      <c r="DM4" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="DL4" s="61" t="s">
+      <c r="DN4" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="DO4" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="DM4" s="61" t="s">
+      <c r="DP4" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="DN4" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="DO4" s="61" t="s">
+      <c r="DQ4" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="DP4" s="61" t="s">
+      <c r="DR4" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="DQ4" s="61" t="s">
+      <c r="DS4" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="DR4" s="61" t="s">
+      <c r="DT4" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="DS4" s="61" t="s">
+      <c r="DU4" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="DT4" s="61" t="s">
+      <c r="DV4" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="DU4" s="61" t="s">
+      <c r="DW4" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="DV4" s="61" t="s">
+      <c r="DX4" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="DW4" s="61" t="s">
+      <c r="DY4" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="DX4" s="61" t="s">
+      <c r="DZ4" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="DY4" s="61" t="s">
+      <c r="EA4" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="DZ4" s="61" t="s">
+      <c r="EB4" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="EA4" s="61" t="s">
+      <c r="EC4" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="EB4" s="61" t="s">
+      <c r="ED4" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="EC4" s="61" t="s">
+      <c r="EE4" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="ED4" s="61" t="s">
+      <c r="EF4" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="EE4" s="61" t="s">
+      <c r="EG4" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="EF4" s="61" t="s">
+      <c r="EH4" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="EG4" s="61" t="s">
+      <c r="EI4" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="EH4" s="61" t="s">
+      <c r="EJ4" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="EI4" s="61" t="s">
+      <c r="EK4" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="EJ4" s="61" t="s">
+      <c r="EL4" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="EM4" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="EK4" s="61" t="s">
+      <c r="EN4" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="EL4" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="EM4" s="61" t="s">
+      <c r="EO4" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="EN4" s="61" t="s">
+      <c r="EP4" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="EO4" s="61" t="s">
+      <c r="EQ4" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="EP4" s="61" t="s">
+      <c r="ER4" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="EQ4" s="61" t="s">
+      <c r="ES4" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="ER4" s="61" t="s">
+      <c r="ET4" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="EU4" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="EV4" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="EW4" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="ES4" s="61" t="s">
+      <c r="EX4" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="ET4" s="61" t="s">
+      <c r="EY4" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="EZ4" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="FA4" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="FB4" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="FC4" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="FD4" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="EU4" s="61" t="s">
+      <c r="FE4" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="EV4" s="61" t="s">
+      <c r="FF4" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="EW4" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="EX4" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="EY4" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="EZ4" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="FA4" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="FB4" s="61" t="s">
+      <c r="FG4" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="FC4" s="61" t="s">
+      <c r="FH4" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="FD4" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="FE4" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="FF4" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="FG4" s="61" t="s">
+      <c r="FI4" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="FH4" s="61" t="s">
+      <c r="FJ4" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="FI4" s="61" t="s">
+      <c r="FK4" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="FJ4" s="61" t="s">
+      <c r="FL4" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="FK4" s="61" t="s">
+      <c r="FM4" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="FL4" s="61" t="s">
+      <c r="FN4" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="FM4" s="61" t="s">
+      <c r="FO4" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="FN4" s="61" t="s">
+      <c r="FP4" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="FO4" s="61" t="s">
+      <c r="FQ4" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="FP4" s="61" t="s">
+      <c r="FR4" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="FQ4" s="61" t="s">
+      <c r="FS4" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="FR4" s="61" t="s">
+      <c r="FT4" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="FS4" s="61" t="s">
+      <c r="FU4" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="FT4" s="61" t="s">
+      <c r="FV4" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="FU4" s="61" t="s">
+      <c r="FW4" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="FV4" s="61" t="s">
+      <c r="FX4" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="FW4" s="61" t="s">
+      <c r="FY4" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="FX4" s="61" t="s">
+      <c r="FZ4" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="FY4" s="61" t="s">
+      <c r="GA4" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="FZ4" s="61" t="s">
+      <c r="GB4" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="GA4" s="61" t="s">
+      <c r="GC4" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="GB4" s="61" t="s">
+      <c r="GD4" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="GC4" s="61" t="s">
+      <c r="GE4" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="GD4" s="61" t="s">
+      <c r="GF4" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="GE4" s="61" t="s">
+      <c r="GG4" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="GF4" s="61" t="s">
+      <c r="GH4" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="GG4" s="61" t="s">
+      <c r="GI4" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="GH4" s="61" t="s">
+      <c r="GJ4" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="GI4" s="61" t="s">
+      <c r="GK4" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="GJ4" s="61" t="s">
+      <c r="GL4" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="GK4" s="61" t="s">
+      <c r="GM4" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="GL4" s="61" t="s">
+      <c r="GN4" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="GM4" s="61" t="s">
+      <c r="GO4" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="GN4" s="61" t="s">
+      <c r="GP4" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="GO4" s="61" t="s">
+      <c r="GQ4" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="GP4" s="61" t="s">
+      <c r="GR4" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="GQ4" s="61" t="s">
+      <c r="GS4" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="GR4" s="61" t="s">
+      <c r="GT4" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="GS4" s="61" t="s">
+      <c r="GU4" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="GT4" s="61" t="s">
+      <c r="GV4" s="61" t="s">
         <v>142</v>
-      </c>
-      <c r="GU4" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="GV4" s="61" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:204" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="E5" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="F5" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="G5" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="H5" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="I5" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="J5" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="K5" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="L5" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="M5" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="N5" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="O5" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="P5" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="N5" s="62" t="s">
+      <c r="Q5" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="O5" s="62" t="s">
+      <c r="R5" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="P5" s="63" t="s">
+      <c r="S5" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="Q5" s="62" t="s">
+      <c r="T5" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="R5" s="62" t="s">
+      <c r="U5" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="S5" s="63" t="s">
+      <c r="V5" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="W5" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="X5" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="T5" s="62" t="s">
+      <c r="Y5" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="U5" s="62" t="s">
+      <c r="Z5" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="V5" s="62" t="s">
+      <c r="AA5" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="W5" s="62" t="s">
+      <c r="AB5" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="X5" s="62" t="s">
+      <c r="AC5" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="Y5" s="62" t="s">
+      <c r="AD5" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="Z5" s="62" t="s">
+      <c r="AE5" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" s="62" t="s">
+      <c r="AF5" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="AB5" s="64" t="s">
+      <c r="AG5" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="AC5" s="65" t="s">
+      <c r="AH5" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="AD5" s="65" t="s">
+      <c r="AI5" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="AE5" s="65" t="s">
+      <c r="AJ5" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="AF5" s="65" t="s">
+      <c r="AK5" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="AG5" s="65" t="s">
+      <c r="AL5" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="AH5" s="65" t="s">
+      <c r="AM5" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="AI5" s="65" t="s">
+      <c r="AN5" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="AJ5" s="65" t="s">
+      <c r="AO5" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="AK5" s="65" t="s">
+      <c r="AP5" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="AL5" s="65" t="s">
+      <c r="AQ5" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="AM5" s="65" t="s">
+      <c r="AR5" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="AN5" s="65" t="s">
+      <c r="AS5" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="AO5" s="65" t="s">
+      <c r="AT5" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="AP5" s="65" t="s">
+      <c r="AU5" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="AQ5" s="65" t="s">
+      <c r="AV5" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="AR5" s="66" t="s">
+      <c r="AW5" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="AS5" s="66" t="s">
+      <c r="AX5" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="AT5" s="66" t="s">
+      <c r="AY5" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="AU5" s="66" t="s">
+      <c r="AZ5" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="AV5" s="66" t="s">
+      <c r="BA5" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="AW5" s="66" t="s">
+      <c r="BB5" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="AX5" s="66" t="s">
+      <c r="BC5" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="AY5" s="66" t="s">
+      <c r="BD5" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="AZ5" s="67" t="s">
+      <c r="BE5" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="BA5" s="67" t="s">
+      <c r="BF5" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="BB5" s="67" t="s">
+      <c r="BG5" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="BC5" s="67" t="s">
+      <c r="BH5" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="BD5" s="67" t="s">
+      <c r="BI5" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="BE5" s="67" t="s">
+      <c r="BJ5" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="BF5" s="67" t="s">
+      <c r="BK5" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="BG5" s="67" t="s">
+      <c r="BL5" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="BH5" s="68" t="s">
+      <c r="BM5" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="BI5" s="68" t="s">
+      <c r="BN5" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="BJ5" s="68" t="s">
+      <c r="BO5" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="BK5" s="68" t="s">
+      <c r="BP5" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="BL5" s="68" t="s">
+      <c r="BQ5" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="BM5" s="68" t="s">
+      <c r="BR5" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="BN5" s="69" t="s">
+      <c r="BS5" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="BO5" s="69" t="s">
+      <c r="BT5" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="BP5" s="69" t="s">
+      <c r="BU5" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="BQ5" s="69" t="s">
+      <c r="BV5" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="BR5" s="69" t="s">
+      <c r="BW5" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="BS5" s="69" t="s">
+      <c r="BX5" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="BT5" s="69" t="s">
+      <c r="BY5" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="BU5" s="69" t="s">
+      <c r="BZ5" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="BV5" s="69" t="s">
+      <c r="CA5" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="BW5" s="69" t="s">
+      <c r="CB5" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="BX5" s="69" t="s">
+      <c r="CC5" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="BY5" s="70" t="s">
+      <c r="CD5" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="BZ5" s="70" t="s">
+      <c r="CE5" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="CA5" s="71" t="s">
+      <c r="CF5" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="CB5" s="71" t="s">
+      <c r="CG5" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="CC5" s="71" t="s">
+      <c r="CH5" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="CD5" s="71" t="s">
+      <c r="CI5" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="CE5" s="71" t="s">
+      <c r="CJ5" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="CF5" s="71" t="s">
+      <c r="CK5" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="CG5" s="72" t="s">
+      <c r="CL5" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="CH5" s="72" t="s">
+      <c r="CM5" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="CI5" s="72" t="s">
+      <c r="CN5" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="CJ5" s="72" t="s">
+      <c r="CO5" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="CK5" s="72" t="s">
+      <c r="CP5" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="CL5" s="72" t="s">
+      <c r="CQ5" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="CM5" s="72" t="s">
+      <c r="CR5" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="CN5" s="72" t="s">
+      <c r="CS5" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="CO5" s="73" t="s">
+      <c r="CT5" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="CP5" s="73" t="s">
+      <c r="CU5" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="CQ5" s="73" t="s">
+      <c r="CV5" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="CR5" s="73" t="s">
+      <c r="CW5" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="CS5" s="73" t="s">
+      <c r="CX5" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="CT5" s="73" t="s">
+      <c r="CY5" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="CU5" s="74" t="s">
+      <c r="CZ5" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="CV5" s="74" t="s">
+      <c r="DA5" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="CW5" s="74" t="s">
+      <c r="DB5" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="CX5" s="74" t="s">
+      <c r="DC5" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="DD5" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="CY5" s="74" t="s">
+      <c r="DE5" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="CZ5" s="74" t="s">
+      <c r="DF5" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="DA5" s="74" t="s">
+      <c r="DG5" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="DB5" s="75" t="s">
+      <c r="DH5" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="DC5" s="62" t="s">
+      <c r="DI5" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="DD5" s="62" t="s">
+      <c r="DJ5" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="DE5" s="62" t="s">
+      <c r="DK5" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="DF5" s="62" t="s">
+      <c r="DL5" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="DG5" s="62" t="s">
+      <c r="DM5" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="DH5" s="62" t="s">
+      <c r="DN5" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="DI5" s="62" t="s">
+      <c r="DO5" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="DJ5" s="62" t="s">
+      <c r="DP5" s="77" t="s">
         <v>258</v>
       </c>
-      <c r="DK5" s="62" t="s">
+      <c r="DQ5" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="DL5" s="62" t="s">
+      <c r="DR5" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="DM5" s="76" t="s">
+      <c r="DS5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="DN5" s="76" t="s">
+      <c r="DT5" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="DO5" s="62" t="s">
+      <c r="DU5" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="DP5" s="77" t="s">
+      <c r="DV5" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="DQ5" s="62" t="s">
+      <c r="DW5" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="DR5" s="62" t="s">
+      <c r="DX5" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="DS5" s="62" t="s">
+      <c r="DY5" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="DT5" s="62" t="s">
+      <c r="DZ5" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="DU5" s="62" t="s">
+      <c r="EA5" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="DV5" s="62" t="s">
+      <c r="EB5" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="DW5" s="62" t="s">
+      <c r="EC5" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="DX5" s="62" t="s">
+      <c r="ED5" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="DY5" s="78" t="s">
+      <c r="EE5" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="DZ5" s="62" t="s">
+      <c r="EF5" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="EA5" s="62" t="s">
+      <c r="EG5" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="EB5" s="62" t="s">
+      <c r="EH5" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="EC5" s="62" t="s">
+      <c r="EI5" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="ED5" s="62" t="s">
+      <c r="EJ5" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="EE5" s="62" t="s">
+      <c r="EK5" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="EF5" s="62" t="s">
+      <c r="EL5" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="EG5" s="78" t="s">
+      <c r="EM5" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="EH5" s="62" t="s">
+      <c r="EN5" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="EI5" s="62" t="s">
+      <c r="EO5" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="EJ5" s="62" t="s">
+      <c r="EP5" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="EK5" s="62" t="s">
+      <c r="EQ5" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="EL5" s="78" t="s">
+      <c r="ER5" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="EM5" s="62" t="s">
+      <c r="ES5" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="EN5" s="62" t="s">
+      <c r="ET5" s="80" t="s">
+        <v>308</v>
+      </c>
+      <c r="EU5" s="80" t="s">
+        <v>309</v>
+      </c>
+      <c r="EV5" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="EW5" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="EO5" s="62" t="s">
+      <c r="EX5" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="EP5" s="62" t="s">
+      <c r="EY5" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="EZ5" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="EQ5" s="62" t="s">
+      <c r="FA5" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="ER5" s="62" t="s">
+      <c r="FB5" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="ES5" s="62" t="s">
+      <c r="FC5" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="ET5" s="80" t="s">
+      <c r="FD5" s="80" t="s">
         <v>314</v>
       </c>
-      <c r="EU5" s="80" t="s">
+      <c r="FE5" s="80" t="s">
         <v>315</v>
       </c>
-      <c r="EV5" s="80" t="s">
-        <v>316</v>
-      </c>
-      <c r="EW5" s="62" t="s">
+      <c r="FF5" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="FG5" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="EX5" s="62" t="s">
+      <c r="FH5" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="EY5" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="EZ5" s="62" t="s">
+      <c r="FI5" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="FA5" s="62" t="s">
+      <c r="FJ5" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="FB5" s="62" t="s">
+      <c r="FK5" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="FC5" s="62" t="s">
+      <c r="FL5" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="FD5" s="80" t="s">
-        <v>320</v>
-      </c>
-      <c r="FE5" s="80" t="s">
-        <v>321</v>
-      </c>
-      <c r="FF5" s="80" t="s">
-        <v>316</v>
-      </c>
-      <c r="FG5" s="62" t="s">
+      <c r="FM5" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="FH5" s="62" t="s">
+      <c r="FN5" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="FI5" s="63" t="s">
+      <c r="FO5" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="FP5" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="FJ5" s="62" t="s">
+      <c r="FQ5" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="FK5" s="62" t="s">
+      <c r="FR5" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="FL5" s="63" t="s">
-        <v>305</v>
-      </c>
-      <c r="FM5" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="FN5" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="FO5" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="FP5" s="62" t="s">
-        <v>308</v>
-      </c>
-      <c r="FQ5" s="62" t="s">
-        <v>309</v>
-      </c>
-      <c r="FR5" s="62" t="s">
-        <v>310</v>
-      </c>
       <c r="FS5" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="FT5" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="FU5" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="FV5" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="FW5" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="FX5" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="FY5" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="FT5" s="62" t="s">
+      <c r="FZ5" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="FU5" s="62" t="s">
+      <c r="GA5" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="FV5" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="FW5" s="62" t="s">
-        <v>256</v>
-      </c>
-      <c r="FX5" s="62" t="s">
+      <c r="GB5" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="FY5" s="62" t="s">
+      <c r="GC5" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="FZ5" s="62" t="s">
+      <c r="GD5" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="GA5" s="62" t="s">
+      <c r="GE5" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="GB5" s="62" t="s">
+      <c r="GF5" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="GG5" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="GH5" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="GC5" s="62" t="s">
+      <c r="GI5" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="GD5" s="62" t="s">
+      <c r="GJ5" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="GE5" s="62" t="s">
+      <c r="GK5" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="GF5" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="GG5" s="62" t="s">
+      <c r="GL5" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="GH5" s="62" t="s">
+      <c r="GM5" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="GI5" s="62" t="s">
+      <c r="GN5" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="GJ5" s="62" t="s">
+      <c r="GO5" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="GK5" s="62" t="s">
+      <c r="GP5" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="GL5" s="62" t="s">
+      <c r="GQ5" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="GR5" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="GM5" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="GN5" s="62" t="s">
+      <c r="GS5" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="GO5" s="62" t="s">
+      <c r="GT5" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="GP5" s="62" t="s">
+      <c r="GU5" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="GQ5" s="62" t="s">
+      <c r="GV5" s="62" t="s">
         <v>279</v>
-      </c>
-      <c r="GR5" s="62" t="s">
-        <v>280</v>
-      </c>
-      <c r="GS5" s="62" t="s">
-        <v>282</v>
-      </c>
-      <c r="GT5" s="62" t="s">
-        <v>283</v>
-      </c>
-      <c r="GU5" s="62" t="s">
-        <v>284</v>
-      </c>
-      <c r="GV5" s="62" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4065,6 +4068,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100203CEFC5DC21A44E9CABB0289930E15C" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88e59cd267f682b9778471b17361f667">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5f17ab01-253b-4038-adc6-a268e93584ea" xmlns:ns4="3a601002-2e62-4211-b6ed-3bf53736a287" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ce2589b5437d6bc092168ff8a73b448" ns3:_="" ns4:_="">
     <xsd:import namespace="5f17ab01-253b-4038-adc6-a268e93584ea"/>
@@ -4293,15 +4305,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4309,6 +4312,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DC80B6-E18B-4047-A4FD-4A2963411896}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF569567-69D2-478F-96A2-95CD3E180B78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4323,14 +4334,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86DC80B6-E18B-4047-A4FD-4A2963411896}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
